--- a/3_output/KEGG_all.xlsx
+++ b/3_output/KEGG_all.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>1.917565574867371e-05</v>
+        <v>1.917565574867371E-05</v>
       </c>
       <c r="F2">
         <v>0.004508384029256892</v>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>3.243441747666829e-05</v>
+        <v>3.243441747666829E-05</v>
       </c>
       <c r="F3">
         <v>0.004508384029256892</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>8.226084278446349e-05</v>
+        <v>8.226084278446349E-05</v>
       </c>
       <c r="F4">
         <v>0.00762283809802695</v>
@@ -34366,7 +34366,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>5.096696880434185e-06</v>
+        <v>5.096696880434185E-06</v>
       </c>
       <c r="F2">
         <v>0.0006319904131738389</v>
